--- a/1st_round_screening/ACE/iteration_1/data/unlabeled_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/unlabeled_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,102 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Size_STD</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity_STD</t>
         </is>
       </c>
     </row>
@@ -570,205 +545,172 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6029377020051359</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08954284899406749</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1437468474853857</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4144798315823852</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2032769811666337</v>
+        <v>80</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.06631350277127028</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.2838754365378656</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>0.354</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9367041643557639</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7211943917700078</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1112036917772887</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1621516780782701</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5698033440964232</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>0.978257452384808</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3769435156687765</v>
+        <v>47</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6875723577358623</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.3785846795003884</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.354</v>
+        <v>84</v>
       </c>
       <c r="C4" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.067</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6272004171010712</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1033087076870094</v>
+        <v>83</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1690933011915551</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6363289518254315</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.825678641093889</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2244749504136754</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.05817504668617132</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1817612267773843</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.354</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -777,214 +719,181 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05770963450198684</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5023547190138469</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.354</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1003260656706656</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1393985433575324</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8971391938229448</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3036028583776478</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>0.354</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6209105441346507</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07941451544272113</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1621450655421459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.599318338290063</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>0.354</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3870016860957143</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04737364553153914</v>
+        <v>87</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05753509617993477</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7004316290031198</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9205970163532674</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -995,39 +904,28 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.8584200824079623</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.1154955498558401</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>0.354</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1036,211 +934,178 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06665540359133816</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1219353958687395</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.887813844896611</v>
+        <v>100</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1070041610345544</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>0.354</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1567700145587406</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1559902829197226</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6095168188843614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8680094740330113</v>
+        <v>81</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8477062212420614</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.354</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7524640013843129</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2206494655611388</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06387283347375615</v>
+        <v>60</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1476551005501229</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6958652066753083</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2318467385989092</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.8884055582832979</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.9000537122929978</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>0.354</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4627344019788105</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03377536315518954</v>
+        <v>81</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04205094741071592</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5240085406600395</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.150094391218596</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1249,193 +1114,160 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1575695939362934</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.3737787814127171</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.4240723005284486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.354</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8095957220508981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02662835795587766</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2274364977483293</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8622467088899084</v>
+        <v>59</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>0.354</v>
+        <v>73</v>
       </c>
       <c r="C14" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7979854420797128</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1793608596929445</v>
+        <v>64</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2179534640588922</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3357871195060545</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M14" t="n">
-        <v>0.232001739572958</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.09572989665544447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>0.354</v>
+        <v>63</v>
       </c>
       <c r="C15" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.599759675075737</v>
+        <v>77</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1507418641206191</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3359522185130588</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1443,63 +1275,52 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.8395694581589778</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.354</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4537394808131627</v>
+        <v>84</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5959935697544094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1507,39 +1328,28 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>0.354</v>
+        <v>94</v>
       </c>
       <c r="C17" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1630259878736547</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1548,46 +1358,35 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07693055349396256</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2035794851598467</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4248611312086814</v>
+        <v>55</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3497843559495042</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5786583444854752</v>
+        <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.02904469624451437</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1st_round_screening/ACE/iteration_1/data/unlabeled_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/unlabeled_1.xlsx
@@ -545,43 +545,43 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M3" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -651,28 +651,28 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -757,28 +757,28 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -810,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I7" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -863,46 +863,46 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G8" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -916,46 +916,46 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="I9" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -969,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I10" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1022,25 +1022,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1075,28 +1075,28 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1181,22 +1181,22 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
+        <v>98</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>70</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G14" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>100</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1234,7 +1234,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1243,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1287,25 +1287,25 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1349,16 +1349,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
